--- a/documentation/use_cases.xlsx
+++ b/documentation/use_cases.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perla\Desktop\fullstack bead\ELTE_fullstack_2022\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikelte-my.sharepoint.com/personal/cbsdzh_inf_elte_hu/Documents/ELTE-jegyzet-21-22-2/Full stack webprogramozás/bead/ELTE_fullstack_2022/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A13C5-06DE-42B6-BAD7-0457E7670F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A63A13C5-06DE-42B6-BAD7-0457E7670F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9AAA72-3C07-4639-9FBC-FC885B473727}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6768A3A3-4853-45B0-8585-2B5955BE65D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{6768A3A3-4853-45B0-8585-2B5955BE65D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Visitor" sheetId="2" r:id="rId2"/>
+    <sheet name="Authenticated User" sheetId="6" r:id="rId3"/>
+    <sheet name="Business Owner" sheetId="3" r:id="rId4"/>
+    <sheet name="Business Admin" sheetId="4" r:id="rId5"/>
+    <sheet name="Site Admin" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>001</t>
   </si>
@@ -278,19 +283,60 @@
   </si>
   <si>
     <t>019</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>user is not logged in</t>
+  </si>
+  <si>
+    <t>clicking "View reservable units"</t>
+  </si>
+  <si>
+    <t>the list of available units appears</t>
+  </si>
+  <si>
+    <t>server comms</t>
+  </si>
+  <si>
+    <t>get all units</t>
+  </si>
+  <si>
+    <t>get specific unit details</t>
+  </si>
+  <si>
+    <t>clicking unit box</t>
+  </si>
+  <si>
+    <t>the details page of a unit appears</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,9 +368,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -638,11 +688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01241121-AD26-4D46-8F13-DBDDB546D9CA}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,4 +995,206 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86BEF23-5391-45B5-96A4-B77FE4DA5702}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="5" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC347CCF-7910-4D43-BC00-6B7F0F547D82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A67FCD-94FB-4051-928E-B131CAD957E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232116F9-0246-4B12-BB42-306DC2DF6D5C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A91328-2544-4C9D-AC02-DC1D3812889D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>